--- a/Ekvivalentnost particioniranja.xlsx
+++ b/Ekvivalentnost particioniranja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenoa\Desktop\Github\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B49BA-B86C-41B8-8069-45E1D8615B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CEC4BD-1D96-432E-AE62-26BC4673E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Parametar</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Neispravan odabir predmeta  1. godine studija</t>
   </si>
   <si>
-    <t>Neispravan odabir predmeta koji nisu na FIT-u</t>
-  </si>
-  <si>
     <t>Prazno polje kao opcija za prikaz svih podataka</t>
   </si>
   <si>
@@ -150,10 +147,16 @@
     <t>Drop down odabir školske godine</t>
   </si>
   <si>
-    <t>"2020/2021"</t>
-  </si>
-  <si>
-    <t>Odabir opcije 2020/2021</t>
+    <t>Odabir opcija 2020/2021 do 2023/2024</t>
+  </si>
+  <si>
+    <t>DLWMS pretraga arhive dokumenata</t>
+  </si>
+  <si>
+    <t>Odabir predmeta koji nisu na FIT-u</t>
+  </si>
+  <si>
+    <t>"2020/2021","2021/2022","2022/2023","2023/2024"</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +191,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -223,6 +232,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -231,10 +249,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:F26"/>
+  <dimension ref="C3:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +550,14 @@
     <col min="6" max="6" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -589,16 +617,16 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -610,7 +638,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -628,7 +656,7 @@
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -646,19 +674,19 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -670,13 +698,13 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -685,19 +713,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -708,10 +736,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -723,57 +751,57 @@
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -785,28 +813,19 @@
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ekvivalentnost particioniranja.xlsx
+++ b/Ekvivalentnost particioniranja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenoa\Desktop\Github\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CEC4BD-1D96-432E-AE62-26BC4673E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F332F4-1D56-4FC1-8E65-2987244FC24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,6 +271,93 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9163021" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD31EBA8-1BE5-BFBF-592E-D37FDC58FCB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="4819650"/>
+          <a:ext cx="9163021" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Ekvivalentnost particioniranja je metoda testiranja koja grupira ulazne vrijednosti u razrede ili particije s ekvivalentnim karakteristikama, </a:t>
+          </a:r>
+          <a:endParaRPr lang="bs-Latn-BA"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>pri čemu se očekuje slično ponašanje sistema unutar svake particije. Cilj je smanjiti broj testova, a istovremeno pokriti različite scenarije.</a:t>
+          </a:r>
+          <a:endParaRPr lang="bs-Latn-BA"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Svaka particija definira skup ekvivalentnih ulaznih vrijednosti, a testiranje unutar svake particije trebalo bi dati slične rezultate. </a:t>
+          </a:r>
+          <a:endParaRPr lang="bs-Latn-BA"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Na primjer, ako sustav ispravno reagira na godine studija 1, 2, 3 i 4, vjerojatno će se ponašati slično za svaku od tih godina studija, unutar definirane particije.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +915,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Ekvivalentnost particioniranja.xlsx
+++ b/Ekvivalentnost particioniranja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenoa\Desktop\Github\Formalne-Metode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\FM vjezbe\Formalne-Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F332F4-1D56-4FC1-8E65-2987244FC24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBBC13-C1DE-400D-A673-98AB9E35441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -349,7 +349,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>Na primjer, ako sustav ispravno reagira na godine studija 1, 2, 3 i 4, vjerojatno će se ponašati slično za svaku od tih godina studija, unutar definirane particije.</a:t>
+            <a:t>Na primjer, ako </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hr-HR"/>
+            <a:t>sistem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> ispravno reag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="hr-HR"/>
+            <a:t>uje</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> na godine studija 1, 2, 3 i 4, vjerojatno će se ponašati slično za svaku od tih godina studija, unutar definirane particije.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -625,19 +641,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="71" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="66.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="62.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
+    <col min="4" max="4" width="66.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.81640625" customWidth="1"/>
+    <col min="6" max="6" width="62.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
@@ -645,7 +661,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -673,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -685,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -699,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -711,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -723,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -735,7 +751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -747,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>24</v>
@@ -759,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -771,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>26</v>
@@ -783,7 +799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>42</v>
@@ -795,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
@@ -809,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
         <v>27</v>
@@ -821,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
@@ -835,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
@@ -847,7 +863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>32</v>
@@ -859,7 +875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>33</v>
@@ -871,7 +887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>37</v>
@@ -883,7 +899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
@@ -897,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>40</v>
